--- a/results/Homeopathy_excluded/mod4.galtan.nonlinear.slopes.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod4.galtan.nonlinear.slopes.COMB.xlsx
@@ -422,25 +422,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.055970881226238</v>
+        <v>0.0559757815166087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.124568548806183</v>
+        <v>0.124567455970054</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.188178988040301</v>
+        <v>-0.188171945830475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.300120750492777</v>
+        <v>0.300123508863692</v>
       </c>
       <c r="H2" t="n">
-        <v>0.449317919833226</v>
+        <v>0.449361200168248</v>
       </c>
       <c r="I2" t="n">
-        <v>0.653202332604909</v>
+        <v>0.653171115880108</v>
       </c>
     </row>
     <row r="3">
@@ -451,25 +451,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0883386651109625</v>
+        <v>0.0883376733404665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.070930896485751</v>
+        <v>0.0709305998580709</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0506833373922481</v>
+        <v>-0.0506837477831742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.227360667614173</v>
+        <v>0.227359094464107</v>
       </c>
       <c r="H3" t="n">
-        <v>1.24541870309941</v>
+        <v>1.2454099291029</v>
       </c>
       <c r="I3" t="n">
-        <v>0.212977881855134</v>
+        <v>0.212981105370984</v>
       </c>
     </row>
     <row r="4">
@@ -480,25 +480,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.270676151883533</v>
+        <v>-0.270676552160305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0966805288125002</v>
+        <v>0.0966796362276</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.46016650636232</v>
+        <v>-0.460165157204835</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0811857974047455</v>
+        <v>-0.0811879471157753</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.79969664221092</v>
+        <v>-2.79972663036389</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00511506512873877</v>
+        <v>0.00511459000574438</v>
       </c>
     </row>
     <row r="5">
@@ -509,25 +509,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.271367827729039</v>
+        <v>-0.271360676861238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134180014012721</v>
+        <v>0.134178473272458</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.534355822639051</v>
+        <v>-0.534345651975826</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00837983281902654</v>
+        <v>-0.00837570174664914</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.02241615285055</v>
+        <v>-2.02238608208205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0431333777203846</v>
+        <v>0.0431364817745773</v>
       </c>
     </row>
     <row r="6">
@@ -538,25 +538,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.117384225750051</v>
+        <v>-0.117391263260903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.076543640846261</v>
+        <v>0.0765433669264727</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.267407005054291</v>
+        <v>-0.267413505692224</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0326385535541899</v>
+        <v>0.0326309791704179</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.53355947603562</v>
+        <v>-1.53365690555092</v>
       </c>
       <c r="I6" t="n">
-        <v>0.125138064194126</v>
+        <v>0.125114080821019</v>
       </c>
     </row>
     <row r="7">
@@ -567,25 +567,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0759262715980167</v>
+        <v>0.0759330781144771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.111845086763378</v>
+        <v>0.111843766390777</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.143286070305963</v>
+        <v>-0.143276675906758</v>
       </c>
       <c r="G7" t="n">
-        <v>0.295138613501996</v>
+        <v>0.295142832135712</v>
       </c>
       <c r="H7" t="n">
-        <v>0.678852096191295</v>
+        <v>0.678920967746831</v>
       </c>
       <c r="I7" t="n">
-        <v>0.497231580905405</v>
+        <v>0.497187939409378</v>
       </c>
     </row>
   </sheetData>
